--- a/data/3000_automated_withplots.xlsx
+++ b/data/3000_automated_withplots.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28705"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1200" yWindow="1200" windowWidth="24400" windowHeight="13560" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="480" windowWidth="25120" windowHeight="14320" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="3000_automated.csv" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -283,11 +283,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2123808872"/>
-        <c:axId val="-2095171352"/>
+        <c:axId val="-2110088136"/>
+        <c:axId val="-2109864536"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2123808872"/>
+        <c:axId val="-2110088136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -297,12 +297,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2095171352"/>
+        <c:crossAx val="-2109864536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2095171352"/>
+        <c:axId val="-2109864536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -312,7 +312,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2123808872"/>
+        <c:crossAx val="-2110088136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -362,7 +362,6 @@
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
-              <c:layout/>
               <c:numFmt formatCode="General" sourceLinked="0"/>
             </c:trendlineLbl>
           </c:trendline>
@@ -484,11 +483,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2091179960"/>
-        <c:axId val="-2089381800"/>
+        <c:axId val="-2093186936"/>
+        <c:axId val="-2093290008"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2091179960"/>
+        <c:axId val="-2093186936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -498,12 +497,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2089381800"/>
+        <c:crossAx val="-2093290008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2089381800"/>
+        <c:axId val="-2093290008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -513,7 +512,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2091179960"/>
+        <c:crossAx val="-2093186936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -563,7 +562,6 @@
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
-              <c:layout/>
               <c:numFmt formatCode="General" sourceLinked="0"/>
             </c:trendlineLbl>
           </c:trendline>
@@ -703,11 +701,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2124322008"/>
-        <c:axId val="-2110434136"/>
+        <c:axId val="-2109884744"/>
+        <c:axId val="-2109883816"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2124322008"/>
+        <c:axId val="-2109884744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -717,12 +715,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2110434136"/>
+        <c:crossAx val="-2109883816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2110434136"/>
+        <c:axId val="-2109883816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -732,7 +730,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2124322008"/>
+        <c:crossAx val="-2109884744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1049,11 +1047,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2080901096"/>
-        <c:axId val="-2089475528"/>
+        <c:axId val="-2109905992"/>
+        <c:axId val="-2109825480"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2080901096"/>
+        <c:axId val="-2109905992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1063,12 +1061,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2089475528"/>
+        <c:crossAx val="-2109825480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2089475528"/>
+        <c:axId val="-2109825480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1078,7 +1076,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2080901096"/>
+        <c:crossAx val="-2109905992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1273,11 +1271,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2088236872"/>
-        <c:axId val="-2089040024"/>
+        <c:axId val="-2109761400"/>
+        <c:axId val="-2082466040"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2088236872"/>
+        <c:axId val="-2109761400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1287,12 +1285,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2089040024"/>
+        <c:crossAx val="-2082466040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2089040024"/>
+        <c:axId val="-2082466040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1302,7 +1300,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2088236872"/>
+        <c:crossAx val="-2109761400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1479,11 +1477,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2111656584"/>
-        <c:axId val="-2084173352"/>
+        <c:axId val="-2082387032"/>
+        <c:axId val="-2082374104"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2111656584"/>
+        <c:axId val="-2082387032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1493,12 +1491,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2084173352"/>
+        <c:crossAx val="-2082374104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2084173352"/>
+        <c:axId val="-2082374104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1508,7 +1506,429 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2111656584"/>
+        <c:crossAx val="-2082387032"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="47625">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:trendline>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout/>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$E$2:$E$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>17.56123828887935</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>17.87163352966305</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18.3242311477661</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>18.8381919860839</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>19.5652046203613</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20.07340240478515</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>20.6774177551269</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>21.25222969055175</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>21.85150527954095</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>22.55508041381835</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>23.45532989501945</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>24.3868942260742</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>26.36312866210935</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>26.6868047714233</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>27.979338645935</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>29.257188796997</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>30.9461507797241</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>32.5432748794555</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="-2123921256"/>
+        <c:axId val="-2085140072"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="-2123921256"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2085140072"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="-2085140072"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2123921256"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="47625">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:trendline>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout/>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>(Sheet1!$A$22:$A$23,Sheet1!$A$25:$A$37)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>13.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>14.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>15.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>16.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>(Sheet1!$B$22:$B$23,Sheet1!$B$25:$B$37)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>36.4101791381835</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>35.2642288208007</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30.7964687347412</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>28.8349933624267</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>27.2313632965087</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>25.8528709411621</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>24.4107990264892</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>23.2642860412597</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>22.3158874511718</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>21.9592952728271</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>20.9421482086181</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>20.1850185394287</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>19.4540405273437</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>18.7903308868408</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>18.2183609008789</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="-2089854568"/>
+        <c:axId val="-2081443176"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="-2089854568"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2081443176"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="-2081443176"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2089854568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1707,6 +2127,66 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>482600</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>165100</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -5316,7 +5796,7 @@
   <dimension ref="A1:E37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N21" sqref="N21"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>

--- a/data/3000_automated_withplots.xlsx
+++ b/data/3000_automated_withplots.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28705"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="480" windowWidth="25120" windowHeight="14320" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="20" yWindow="0" windowWidth="25360" windowHeight="14540" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="3000_automated.csv" sheetId="1" r:id="rId1"/>
@@ -283,11 +283,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2110088136"/>
-        <c:axId val="-2109864536"/>
+        <c:axId val="-2124028280"/>
+        <c:axId val="-2124249032"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2110088136"/>
+        <c:axId val="-2124028280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -297,12 +297,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2109864536"/>
+        <c:crossAx val="-2124249032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2109864536"/>
+        <c:axId val="-2124249032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -312,7 +312,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2110088136"/>
+        <c:crossAx val="-2124028280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -483,11 +483,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2093186936"/>
-        <c:axId val="-2093290008"/>
+        <c:axId val="-2124396504"/>
+        <c:axId val="-2082807896"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2093186936"/>
+        <c:axId val="-2124396504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -497,12 +497,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2093290008"/>
+        <c:crossAx val="-2082807896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2093290008"/>
+        <c:axId val="-2082807896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -512,7 +512,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2093186936"/>
+        <c:crossAx val="-2124396504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -701,11 +701,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2109884744"/>
-        <c:axId val="-2109883816"/>
+        <c:axId val="-2094497624"/>
+        <c:axId val="-2083416376"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2109884744"/>
+        <c:axId val="-2094497624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -715,12 +715,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2109883816"/>
+        <c:crossAx val="-2083416376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2109883816"/>
+        <c:axId val="-2083416376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -730,7 +730,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2109884744"/>
+        <c:crossAx val="-2094497624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1047,11 +1047,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2109905992"/>
-        <c:axId val="-2109825480"/>
+        <c:axId val="-2129828872"/>
+        <c:axId val="-2083318312"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2109905992"/>
+        <c:axId val="-2129828872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1061,12 +1061,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2109825480"/>
+        <c:crossAx val="-2083318312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2109825480"/>
+        <c:axId val="-2083318312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1076,7 +1076,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2109905992"/>
+        <c:crossAx val="-2129828872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1271,11 +1271,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2109761400"/>
-        <c:axId val="-2082466040"/>
+        <c:axId val="-2106732888"/>
+        <c:axId val="-2128285800"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2109761400"/>
+        <c:axId val="-2106732888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1285,12 +1285,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2082466040"/>
+        <c:crossAx val="-2128285800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2082466040"/>
+        <c:axId val="-2128285800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1300,7 +1300,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2109761400"/>
+        <c:crossAx val="-2106732888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1477,11 +1477,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2082387032"/>
-        <c:axId val="-2082374104"/>
+        <c:axId val="-2137527912"/>
+        <c:axId val="-2106681672"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2082387032"/>
+        <c:axId val="-2137527912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1491,12 +1491,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2082374104"/>
+        <c:crossAx val="-2106681672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2082374104"/>
+        <c:axId val="-2106681672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1506,7 +1506,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2082387032"/>
+        <c:crossAx val="-2137527912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1697,11 +1697,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2123921256"/>
-        <c:axId val="-2085140072"/>
+        <c:axId val="-2128093336"/>
+        <c:axId val="-2106939704"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2123921256"/>
+        <c:axId val="-2128093336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1711,12 +1711,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2085140072"/>
+        <c:crossAx val="-2106939704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2085140072"/>
+        <c:axId val="-2106939704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1726,7 +1726,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2123921256"/>
+        <c:crossAx val="-2128093336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1899,11 +1899,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2089854568"/>
-        <c:axId val="-2081443176"/>
+        <c:axId val="-2086742072"/>
+        <c:axId val="-2087123992"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2089854568"/>
+        <c:axId val="-2086742072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1913,12 +1913,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2081443176"/>
+        <c:crossAx val="-2087123992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2081443176"/>
+        <c:axId val="-2087123992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1928,7 +1928,228 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2089854568"/>
+        <c:crossAx val="-2086742072"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="47625">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:trendline>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
+            <c:intercept val="0.0"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout/>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$F$2:$F$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.310395240783698</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.762992858886747</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.276953697204547</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.003966331481948</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.512164115905797</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.116179466247548</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.690991401672398</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.2902669906616</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.993842124939</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.894091606140098</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6.825655937194845</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>8.801890373229998</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>9.125566482543945</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>10.41810035705565</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>11.69595050811765</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>13.38491249084475</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>14.98203659057615</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="-2131287944"/>
+        <c:axId val="-2141418408"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="-2131287944"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2141418408"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="-2141418408"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2131287944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2187,6 +2408,36 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>711200</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>330200</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -5793,20 +6044,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E37"/>
+  <dimension ref="A1:F37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A2" activeCellId="1" sqref="F2:F19 A2:A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:6">
       <c r="A2">
         <v>1</v>
       </c>
@@ -5822,8 +6073,12 @@
         <f>AVERAGE(B2:C2)</f>
         <v>17.561238288879352</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="F2">
+        <f>E2-$E$2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3">
         <v>2</v>
       </c>
@@ -5839,8 +6094,12 @@
         <f t="shared" ref="E3:E19" si="0">AVERAGE(B3:C3)</f>
         <v>17.87163352966305</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="F3">
+        <f t="shared" ref="F3:F19" si="1">E3-$E$2</f>
+        <v>0.31039524078369851</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4">
         <v>3</v>
       </c>
@@ -5856,8 +6115,12 @@
         <f t="shared" si="0"/>
         <v>18.324231147766099</v>
       </c>
-    </row>
-    <row r="5" spans="1:5">
+      <c r="F4">
+        <f t="shared" si="1"/>
+        <v>0.76299285888674717</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5">
         <v>4</v>
       </c>
@@ -5873,8 +6136,12 @@
         <f t="shared" si="0"/>
         <v>18.838191986083899</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5">
+        <f t="shared" si="1"/>
+        <v>1.2769536972045472</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6">
         <v>5</v>
       </c>
@@ -5890,8 +6157,12 @@
         <f t="shared" si="0"/>
         <v>19.5652046203613</v>
       </c>
-    </row>
-    <row r="7" spans="1:5">
+      <c r="F6">
+        <f t="shared" si="1"/>
+        <v>2.0039663314819478</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7">
         <v>6</v>
       </c>
@@ -5907,8 +6178,12 @@
         <f t="shared" si="0"/>
         <v>20.073402404785149</v>
       </c>
-    </row>
-    <row r="8" spans="1:5">
+      <c r="F7">
+        <f t="shared" si="1"/>
+        <v>2.5121641159057972</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8">
         <v>7</v>
       </c>
@@ -5924,8 +6199,12 @@
         <f t="shared" si="0"/>
         <v>20.6774177551269</v>
       </c>
-    </row>
-    <row r="9" spans="1:5">
+      <c r="F8">
+        <f t="shared" si="1"/>
+        <v>3.1161794662475479</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9">
         <v>8</v>
       </c>
@@ -5941,8 +6220,12 @@
         <f t="shared" si="0"/>
         <v>21.252229690551751</v>
       </c>
-    </row>
-    <row r="10" spans="1:5">
+      <c r="F9">
+        <f t="shared" si="1"/>
+        <v>3.6909914016723988</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10">
         <v>9</v>
       </c>
@@ -5958,8 +6241,12 @@
         <f t="shared" si="0"/>
         <v>21.851505279540952</v>
       </c>
-    </row>
-    <row r="11" spans="1:5">
+      <c r="F10">
+        <f t="shared" si="1"/>
+        <v>4.2902669906615998</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11">
         <v>10</v>
       </c>
@@ -5975,8 +6262,12 @@
         <f t="shared" si="0"/>
         <v>22.555080413818352</v>
       </c>
-    </row>
-    <row r="12" spans="1:5">
+      <c r="F11">
+        <f t="shared" si="1"/>
+        <v>4.9938421249390004</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12">
         <v>11</v>
       </c>
@@ -5992,8 +6283,12 @@
         <f t="shared" si="0"/>
         <v>23.45532989501945</v>
       </c>
-    </row>
-    <row r="13" spans="1:5">
+      <c r="F12">
+        <f t="shared" si="1"/>
+        <v>5.8940916061400976</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13">
         <v>12</v>
       </c>
@@ -6009,8 +6304,12 @@
         <f t="shared" si="0"/>
         <v>24.386894226074197</v>
       </c>
-    </row>
-    <row r="14" spans="1:5">
+      <c r="F13">
+        <f t="shared" si="1"/>
+        <v>6.8256559371948455</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14">
         <v>13</v>
       </c>
@@ -6026,8 +6325,12 @@
         <f t="shared" si="0"/>
         <v>26.36312866210935</v>
       </c>
-    </row>
-    <row r="15" spans="1:5">
+      <c r="F14">
+        <f t="shared" si="1"/>
+        <v>8.8018903732299982</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15">
         <v>14</v>
       </c>
@@ -6043,8 +6346,12 @@
         <f t="shared" si="0"/>
         <v>26.686804771423297</v>
       </c>
-    </row>
-    <row r="16" spans="1:5">
+      <c r="F15">
+        <f t="shared" si="1"/>
+        <v>9.1255664825439453</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16">
         <v>15</v>
       </c>
@@ -6060,8 +6367,12 @@
         <f t="shared" si="0"/>
         <v>27.979338645935002</v>
       </c>
-    </row>
-    <row r="17" spans="1:5">
+      <c r="F16">
+        <f t="shared" si="1"/>
+        <v>10.41810035705565</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17">
         <v>16</v>
       </c>
@@ -6077,8 +6388,12 @@
         <f t="shared" si="0"/>
         <v>29.257188796996999</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="F17">
+        <f t="shared" si="1"/>
+        <v>11.695950508117647</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18">
         <v>17</v>
       </c>
@@ -6094,8 +6409,12 @@
         <f t="shared" si="0"/>
         <v>30.9461507797241</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="F18">
+        <f t="shared" si="1"/>
+        <v>13.384912490844748</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19">
         <v>18</v>
       </c>
@@ -6111,13 +6430,17 @@
         <f t="shared" si="0"/>
         <v>32.543274879455502</v>
       </c>
-    </row>
-    <row r="21" spans="1:5">
+      <c r="F19">
+        <f t="shared" si="1"/>
+        <v>14.982036590576151</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:6">
       <c r="A22">
         <v>1</v>
       </c>
@@ -6126,7 +6449,7 @@
         <v>36.410179138183501</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:6">
       <c r="A23">
         <v>2</v>
       </c>
@@ -6135,7 +6458,7 @@
         <v>35.264228820800703</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:6">
       <c r="A24">
         <v>3</v>
       </c>
@@ -6144,7 +6467,7 @@
         <v>35.234340667724602</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:6">
       <c r="A25">
         <v>4</v>
       </c>
@@ -6153,7 +6476,7 @@
         <v>30.7964687347412</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:6">
       <c r="A26">
         <v>5</v>
       </c>
@@ -6162,7 +6485,7 @@
         <v>28.834993362426701</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:6">
       <c r="A27">
         <v>6</v>
       </c>
@@ -6171,7 +6494,7 @@
         <v>27.2313632965087</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:6">
       <c r="A28">
         <v>7</v>
       </c>
@@ -6180,7 +6503,7 @@
         <v>25.852870941162099</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:6">
       <c r="A29">
         <v>8</v>
       </c>
@@ -6189,7 +6512,7 @@
         <v>24.410799026489201</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:6">
       <c r="A30">
         <v>9</v>
       </c>
@@ -6198,7 +6521,7 @@
         <v>23.264286041259702</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:6">
       <c r="A31">
         <v>10</v>
       </c>
@@ -6207,7 +6530,7 @@
         <v>22.3158874511718</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:6">
       <c r="A32">
         <v>11</v>
       </c>
